--- a/Document/分工与贡献率.xlsx
+++ b/Document/分工与贡献率.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\newgame\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22370" windowHeight="9950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,14 +66,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TMNController，安装部署说明</t>
+    <t>TMNController，安装部署说明，软件需求规格说明书</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,18 +456,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="55.75" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>14331335</v>
       </c>
@@ -495,7 +495,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>14331076</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>14331271</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>14331189</v>
       </c>
@@ -537,7 +537,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>14331306</v>
       </c>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,7 +578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
